--- a/src/test/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
+++ b/src/test/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -308,6 +307,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,7 +633,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,58 +649,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1"/>
       <c r="J1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
@@ -694,36 +708,36 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -732,6 +746,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -771,16 +787,17 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I12" t="s">
@@ -788,268 +805,268 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
+++ b/src/test/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,91 +60,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>三目运算测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1 = 1 ? 小明 : 小红 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sex == 1 ? 男 : 女}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n:t.approvedAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.amountApplied}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe: maplist t.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{le:(letest) = 9 ? 小明 : 小红 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(fntest;####.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!if:('1' == '2')}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!if:('1' == '1')}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fd:(fdtest;yyyy-MM-dd)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe:sitest t.si}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单列测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe: entitylist t.accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入下移ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe: maplist t.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不创建Row的Foreach,空白的cell必须满足collect.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三目运算测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{1 = 1 ? 小明 : 小红 }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>le测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fn测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.sex == 1 ? 男 : 女}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n:t.approvedAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.amountApplied}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!fe: maplist t.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{le:(letest) = 9 ? 小明 : 小红 }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fn:(fntest;####.00)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!if:('1' == '2')}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!if:('1' == '1')}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fd:(fdtest;yyyy-MM-dd)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!fe:sitest t.si}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单列测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!fe: entitylist t.accountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入下移ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe: maplist t.id</t>
+    <t>男性标志:{{sexmark}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sex == sexmark ? 男 : 女}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +641,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,14 +658,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -676,13 +686,13 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -704,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -717,7 +727,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -729,40 +739,40 @@
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -777,31 +787,31 @@
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">

--- a/src/test/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
+++ b/src/test/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,91 +60,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>三目运算测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1 = 1 ? 小明 : 小红 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sex == 1 ? 男 : 女}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n:t.approvedAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.amountApplied}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe: maplist t.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{le:(letest) = 9 ? 小明 : 小红 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(fntest;####.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!if:('1' == '2')}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!if:('1' == '1')}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fd:(fdtest;yyyy-MM-dd)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe:sitest t.si}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单列测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe: entitylist t.accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入下移ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe: maplist t.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不创建Row的Foreach,空白的cell必须满足collect.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三目运算测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{1 = 1 ? 小明 : 小红 }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>le测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fn测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.sex == 1 ? 男 : 女}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n:t.approvedAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.amountApplied}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!fe: maplist t.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{le:(letest) = 9 ? 小明 : 小红 }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fn:(fntest;####.00)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!if:('1' == '2')}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!if:('1' == '1')}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fd:(fdtest;yyyy-MM-dd)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!fe:sitest t.si}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单列测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{!fe: entitylist t.accountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入下移ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe: maplist t.id</t>
+    <t>男性标志:{{sexmark}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sex == sexmark ? 男 : 女}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,14 +641,14 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
@@ -650,14 +658,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -676,13 +686,13 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -704,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -717,7 +727,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -729,40 +739,40 @@
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -777,31 +787,31 @@
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
